--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Con.Uni.MCP1_Plaque.Cytokines_Plaques.RANK.MODEL1.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Con.Uni.MCP1_Plaque.Cytokines_Plaques.RANK.MODEL1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t xml:space="preserve">MMP9_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
   </si>
 </sst>
 </file>
@@ -539,40 +542,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0684166342703103</v>
+        <v>0.0330038411159648</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0579554868944338</v>
+        <v>0.0562282583092186</v>
       </c>
       <c r="F2" t="n">
-        <v>1.07081135226015</v>
+        <v>1.03355450923641</v>
       </c>
       <c r="G2" t="n">
-        <v>0.955829126341525</v>
+        <v>0.925701412377547</v>
       </c>
       <c r="H2" t="n">
-        <v>1.19962545661065</v>
+        <v>1.15397352675447</v>
       </c>
       <c r="I2" t="n">
-        <v>1.18050314019329</v>
+        <v>0.586961825039384</v>
       </c>
       <c r="J2" t="n">
-        <v>0.238632704462318</v>
+        <v>0.557627069760756</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00504302014215022</v>
+        <v>0.137294698374492</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00381416365480391</v>
+        <v>0.119159752094076</v>
       </c>
       <c r="M2" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N2" t="n">
         <v>341</v>
       </c>
       <c r="O2" t="n">
-        <v>85.9149111937216</v>
+        <v>85.9265373503921</v>
       </c>
     </row>
     <row r="3">
@@ -586,40 +589,40 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0227989606442133</v>
+        <v>-0.0260174455896558</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0600295979930182</v>
+        <v>0.057918391477669</v>
       </c>
       <c r="F3" t="n">
-        <v>1.02306084337851</v>
+        <v>0.974318091906857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.909501118323577</v>
+        <v>0.869760412765168</v>
       </c>
       <c r="H3" t="n">
-        <v>1.15079956271366</v>
+        <v>1.09144510405916</v>
       </c>
       <c r="I3" t="n">
-        <v>0.379795324414215</v>
+        <v>-0.449208704279833</v>
       </c>
       <c r="J3" t="n">
-        <v>0.704355743165406</v>
+        <v>0.653596008000372</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00141544605972365</v>
+        <v>0.13577783849378</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.00818632849739442</v>
+        <v>0.118996825648999</v>
       </c>
       <c r="M3" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N3" t="n">
         <v>316</v>
       </c>
       <c r="O3" t="n">
-        <v>86.9475423378769</v>
+        <v>86.9583161370202</v>
       </c>
     </row>
     <row r="4">
@@ -633,40 +636,40 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0457355542173954</v>
+        <v>-0.030098423099388</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0561918216543849</v>
+        <v>0.0548548737440437</v>
       </c>
       <c r="F4" t="n">
-        <v>1.04679755315344</v>
+        <v>0.97035002399156</v>
       </c>
       <c r="G4" t="n">
-        <v>0.937629482296214</v>
+        <v>0.871435021974423</v>
       </c>
       <c r="H4" t="n">
-        <v>1.16867604739187</v>
+        <v>1.08049268771304</v>
       </c>
       <c r="I4" t="n">
-        <v>0.81391834026485</v>
+        <v>-0.548691867195413</v>
       </c>
       <c r="J4" t="n">
-        <v>0.416271611254024</v>
+        <v>0.583586833922229</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00426974015963242</v>
+        <v>0.134776367737198</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.00467394480899341</v>
+        <v>0.119092555672011</v>
       </c>
       <c r="M4" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N4" t="n">
         <v>338</v>
       </c>
       <c r="O4" t="n">
-        <v>86.0388269310202</v>
+        <v>86.0503508047875</v>
       </c>
     </row>
     <row r="5">
@@ -680,40 +683,40 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0479778229046622</v>
+        <v>0.0721636935433504</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0589664986024052</v>
+        <v>0.0579867498290365</v>
       </c>
       <c r="F5" t="n">
-        <v>1.04914738802482</v>
+        <v>1.07483127260375</v>
       </c>
       <c r="G5" t="n">
-        <v>0.934637510325352</v>
+        <v>0.959358606421627</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1776867819227</v>
+        <v>1.20420274215926</v>
       </c>
       <c r="I5" t="n">
-        <v>0.813645443460419</v>
+        <v>1.2444859171468</v>
       </c>
       <c r="J5" t="n">
-        <v>0.416404448805892</v>
+        <v>0.214167994540727</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00486145272283153</v>
+        <v>0.161789121004094</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.00371732785714407</v>
+        <v>0.14473250428034</v>
       </c>
       <c r="M5" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N5" t="n">
         <v>352</v>
       </c>
       <c r="O5" t="n">
-        <v>85.4605534902933</v>
+        <v>85.4725546842757</v>
       </c>
     </row>
     <row r="6">
@@ -727,40 +730,40 @@
         <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.103928801688697</v>
+        <v>0.213453229657321</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0596011213990794</v>
+        <v>0.0557255441864558</v>
       </c>
       <c r="F6" t="n">
-        <v>1.1095214560493</v>
+        <v>1.23794559777426</v>
       </c>
       <c r="G6" t="n">
-        <v>0.987193316261549</v>
+        <v>1.10985698319188</v>
       </c>
       <c r="H6" t="n">
-        <v>1.24700789719245</v>
+        <v>1.38081692169135</v>
       </c>
       <c r="I6" t="n">
-        <v>1.74373903123075</v>
+        <v>3.83043777810609</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0821137784566753</v>
+        <v>0.00015277287594952</v>
       </c>
       <c r="K6" t="n">
-        <v>0.018606339185105</v>
+        <v>0.207761780465818</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00989574456248765</v>
+        <v>0.191157985445641</v>
       </c>
       <c r="M6" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N6" t="n">
         <v>342</v>
       </c>
       <c r="O6" t="n">
-        <v>85.8736059479554</v>
+        <v>85.885266198927</v>
       </c>
     </row>
     <row r="7">
@@ -774,40 +777,40 @@
         <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.110359348430773</v>
+        <v>0.121234164864601</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0589240856969532</v>
+        <v>0.0555543835752277</v>
       </c>
       <c r="F7" t="n">
-        <v>1.11667927531365</v>
+        <v>1.1288892276126</v>
       </c>
       <c r="G7" t="n">
-        <v>0.994881285959333</v>
+        <v>1.01242411906539</v>
       </c>
       <c r="H7" t="n">
-        <v>1.25338834041149</v>
+        <v>1.25875200345505</v>
       </c>
       <c r="I7" t="n">
-        <v>1.87290726916582</v>
+        <v>2.18226100376822</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0618548549533548</v>
+        <v>0.0297135993379268</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0176071769978629</v>
+        <v>0.14955295467135</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00978972747795204</v>
+        <v>0.133592822453386</v>
       </c>
       <c r="M7" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N7" t="n">
         <v>381</v>
       </c>
       <c r="O7" t="n">
-        <v>84.2627013630731</v>
+        <v>84.275691291787</v>
       </c>
     </row>
     <row r="8">
@@ -821,40 +824,40 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0849810201203317</v>
+        <v>0.0185494009917168</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0628691952572958</v>
+        <v>0.0616454766338393</v>
       </c>
       <c r="F8" t="n">
-        <v>1.08869640317558</v>
+        <v>1.01872250982879</v>
       </c>
       <c r="G8" t="n">
-        <v>0.962479412572552</v>
+        <v>0.902780590756294</v>
       </c>
       <c r="H8" t="n">
-        <v>1.23146515427216</v>
+        <v>1.14955456802906</v>
       </c>
       <c r="I8" t="n">
-        <v>1.35171159377088</v>
+        <v>0.30090449461355</v>
       </c>
       <c r="J8" t="n">
-        <v>0.177496146854388</v>
+        <v>0.763700011546407</v>
       </c>
       <c r="K8" t="n">
-        <v>0.008714814515089</v>
+        <v>0.130747806085047</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.00129816715647579</v>
+        <v>0.113007965392905</v>
       </c>
       <c r="M8" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N8" t="n">
         <v>301</v>
       </c>
       <c r="O8" t="n">
-        <v>87.5671210243701</v>
+        <v>87.5773834089971</v>
       </c>
     </row>
     <row r="9">
@@ -868,40 +871,40 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0770472785848992</v>
+        <v>0.0466698833293082</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0597950800216714</v>
+        <v>0.0587462071959844</v>
       </c>
       <c r="F9" t="n">
-        <v>1.08009314046071</v>
+        <v>1.04777606363586</v>
       </c>
       <c r="G9" t="n">
-        <v>0.960644295722242</v>
+        <v>0.933818969098159</v>
       </c>
       <c r="H9" t="n">
-        <v>1.21439454464589</v>
+        <v>1.17563972874582</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2885220415622</v>
+        <v>0.794432280089366</v>
       </c>
       <c r="J9" t="n">
-        <v>0.198518965988359</v>
+        <v>0.427553529240952</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00732045400129838</v>
+        <v>0.127504791567243</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.00222454163330443</v>
+        <v>0.110563137034568</v>
       </c>
       <c r="M9" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N9" t="n">
         <v>316</v>
       </c>
       <c r="O9" t="n">
-        <v>86.9475423378769</v>
+        <v>86.9583161370202</v>
       </c>
     </row>
     <row r="10">
@@ -915,40 +918,40 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0958651143030741</v>
+        <v>0.148371405045619</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0536681854603812</v>
+        <v>0.0509877960837309</v>
       </c>
       <c r="F10" t="n">
-        <v>1.10061059735372</v>
+        <v>1.15994362528564</v>
       </c>
       <c r="G10" t="n">
-        <v>0.990718809414459</v>
+        <v>1.04962748467515</v>
       </c>
       <c r="H10" t="n">
-        <v>1.22269172190569</v>
+        <v>1.28185402296053</v>
       </c>
       <c r="I10" t="n">
-        <v>1.78625592575407</v>
+        <v>2.90993956283121</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0747622951971939</v>
+        <v>0.00380444835461274</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0140576985268925</v>
+        <v>0.147842450188774</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00717903130731279</v>
+        <v>0.13383986134211</v>
       </c>
       <c r="M10" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N10" t="n">
         <v>434</v>
       </c>
       <c r="O10" t="n">
-        <v>82.0735233374639</v>
+        <v>82.0883202641354</v>
       </c>
     </row>
     <row r="11">
@@ -962,40 +965,40 @@
         <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>0.090107786069004</v>
+        <v>0.135053432592861</v>
       </c>
       <c r="E11" t="n">
-        <v>0.054129665005323</v>
+        <v>0.0515274231042804</v>
       </c>
       <c r="F11" t="n">
-        <v>1.09429222680625</v>
+        <v>1.14459794155321</v>
       </c>
       <c r="G11" t="n">
-        <v>0.984140746259887</v>
+        <v>1.03464635600302</v>
       </c>
       <c r="H11" t="n">
-        <v>1.21677258278296</v>
+        <v>1.26623405205712</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6646655038442</v>
+        <v>2.6210010991534</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0967062563309075</v>
+        <v>0.00908008036676987</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0130282901490632</v>
+        <v>0.144522588735035</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00615841745868528</v>
+        <v>0.130498368878233</v>
       </c>
       <c r="M11" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N11" t="n">
         <v>435</v>
       </c>
       <c r="O11" t="n">
-        <v>82.0322180916976</v>
+        <v>82.0470491126702</v>
       </c>
     </row>
     <row r="12">
@@ -1009,40 +1012,40 @@
         <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>0.161771531940224</v>
+        <v>0.0604225687002957</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0618924009714381</v>
+        <v>0.0624916495781486</v>
       </c>
       <c r="F12" t="n">
-        <v>1.17559162549933</v>
+        <v>1.06228534025117</v>
       </c>
       <c r="G12" t="n">
-        <v>1.04129218349266</v>
+        <v>0.939825495090357</v>
       </c>
       <c r="H12" t="n">
-        <v>1.32721218103133</v>
+        <v>1.20070177922131</v>
       </c>
       <c r="I12" t="n">
-        <v>2.61375434465496</v>
+        <v>0.966890282272588</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00936315086189233</v>
+        <v>0.334311257574744</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0246775348547442</v>
+        <v>0.150317969439084</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0158643800492149</v>
+        <v>0.132184511469797</v>
       </c>
       <c r="M12" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N12" t="n">
         <v>336</v>
       </c>
       <c r="O12" t="n">
-        <v>86.1214374225527</v>
+        <v>86.1328931077177</v>
       </c>
     </row>
     <row r="13">
@@ -1056,40 +1059,40 @@
         <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0714170909912468</v>
+        <v>0.0109536015664204</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0602661385206926</v>
+        <v>0.0603912456024417</v>
       </c>
       <c r="F13" t="n">
-        <v>1.07402910032175</v>
+        <v>1.01101381189924</v>
       </c>
       <c r="G13" t="n">
-        <v>0.954369333415193</v>
+        <v>0.898154443116761</v>
       </c>
       <c r="H13" t="n">
-        <v>1.20869192664649</v>
+        <v>1.13805474735947</v>
       </c>
       <c r="I13" t="n">
-        <v>1.18502848770915</v>
+        <v>0.181377308203385</v>
       </c>
       <c r="J13" t="n">
-        <v>0.236937857530391</v>
+        <v>0.856194731762634</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00786819774931872</v>
+        <v>0.142418230364458</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.00198741618032372</v>
+        <v>0.122273692151543</v>
       </c>
       <c r="M13" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N13" t="n">
         <v>306</v>
       </c>
       <c r="O13" t="n">
-        <v>87.360594795539</v>
+        <v>87.3710276516715</v>
       </c>
     </row>
     <row r="14">
@@ -1103,40 +1106,40 @@
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>0.175120989423002</v>
+        <v>0.00901335617967568</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0520847256419743</v>
+        <v>0.0559253091097021</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1913903535241</v>
+        <v>1.00905409879171</v>
       </c>
       <c r="G14" t="n">
-        <v>1.07576810978853</v>
+        <v>0.90429445264325</v>
       </c>
       <c r="H14" t="n">
-        <v>1.3194395349285</v>
+        <v>1.12594981790742</v>
       </c>
       <c r="I14" t="n">
-        <v>3.36223311661018</v>
+        <v>0.161167748970242</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00084213480138007</v>
+        <v>0.872037506508888</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0320701973627911</v>
+        <v>0.130812400345072</v>
       </c>
       <c r="L14" t="n">
-        <v>0.025332866950003</v>
+        <v>0.116563423301549</v>
       </c>
       <c r="M14" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N14" t="n">
         <v>435</v>
       </c>
       <c r="O14" t="n">
-        <v>82.0322180916976</v>
+        <v>82.0470491126702</v>
       </c>
     </row>
     <row r="15">
@@ -1150,40 +1153,40 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267725939358518</v>
+        <v>0.203519765746872</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0504857406981825</v>
+        <v>0.0492433983665987</v>
       </c>
       <c r="F15" t="n">
-        <v>1.30698889671154</v>
+        <v>1.22570938446321</v>
       </c>
       <c r="G15" t="n">
-        <v>1.18385242493359</v>
+        <v>1.11293726491306</v>
       </c>
       <c r="H15" t="n">
-        <v>1.44293320700262</v>
+        <v>1.34990851912802</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3030011178613</v>
+        <v>4.13293502271601</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000000183190260344603</v>
+        <v>0.00004319486825868</v>
       </c>
       <c r="K15" t="n">
-        <v>0.069256696362249</v>
+        <v>0.162693509004449</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0627175162430142</v>
+        <v>0.148837373219653</v>
       </c>
       <c r="M15" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N15" t="n">
         <v>431</v>
       </c>
       <c r="O15" t="n">
-        <v>82.1974390747625</v>
+        <v>82.2121337185308</v>
       </c>
     </row>
     <row r="16">
@@ -1197,40 +1200,40 @@
         <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>0.113586440973283</v>
+        <v>0.157842509188904</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0571653530087491</v>
+        <v>0.0542046484101763</v>
       </c>
       <c r="F16" t="n">
-        <v>1.1202887235547</v>
+        <v>1.1709817613174</v>
       </c>
       <c r="G16" t="n">
-        <v>1.00154353910821</v>
+        <v>1.05295594882768</v>
       </c>
       <c r="H16" t="n">
-        <v>1.25311259582518</v>
+        <v>1.3022370849081</v>
       </c>
       <c r="I16" t="n">
-        <v>1.98698048721748</v>
+        <v>2.91197367418531</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0476237882946464</v>
+        <v>0.00380008531684748</v>
       </c>
       <c r="K16" t="n">
-        <v>0.019862544742512</v>
+        <v>0.154626726686019</v>
       </c>
       <c r="L16" t="n">
-        <v>0.012323025855916</v>
+        <v>0.139296123283952</v>
       </c>
       <c r="M16" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N16" t="n">
         <v>394</v>
       </c>
       <c r="O16" t="n">
-        <v>83.7257331681124</v>
+        <v>83.7391663227404</v>
       </c>
     </row>
     <row r="17">
@@ -1244,40 +1247,40 @@
         <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>0.160303189394064</v>
+        <v>0.00175799128221193</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0525729778898459</v>
+        <v>0.0560462397319886</v>
       </c>
       <c r="F17" t="n">
-        <v>1.17386672098396</v>
+        <v>1.00175953745481</v>
       </c>
       <c r="G17" t="n">
-        <v>1.05893125842239</v>
+        <v>0.897544445324885</v>
       </c>
       <c r="H17" t="n">
-        <v>1.30127717703464</v>
+        <v>1.11807518402993</v>
       </c>
       <c r="I17" t="n">
-        <v>3.04915558958713</v>
+        <v>0.0313668016020092</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00243899593910793</v>
+        <v>0.974991952096985</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0281691711492501</v>
+        <v>0.128036086177811</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0212767539233584</v>
+        <v>0.113468669956437</v>
       </c>
       <c r="M17" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N17" t="n">
         <v>427</v>
       </c>
       <c r="O17" t="n">
-        <v>82.3626600578273</v>
+        <v>82.3772183243913</v>
       </c>
     </row>
     <row r="18">
@@ -1291,40 +1294,40 @@
         <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0177538341839803</v>
+        <v>0.119013967048882</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0540214378281983</v>
+        <v>0.0536021771441871</v>
       </c>
       <c r="F18" t="n">
-        <v>0.982402836591041</v>
+        <v>1.12638565046193</v>
       </c>
       <c r="G18" t="n">
-        <v>0.883701580172715</v>
+        <v>1.0140515071109</v>
       </c>
       <c r="H18" t="n">
-        <v>1.09212810636086</v>
+        <v>1.25116389519629</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.328644236394485</v>
+        <v>2.22031964725501</v>
       </c>
       <c r="J18" t="n">
-        <v>0.742588404397028</v>
+        <v>0.026935252081144</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00779567107628402</v>
+        <v>0.139348008370235</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000708497298257504</v>
+        <v>0.12486588351108</v>
       </c>
       <c r="M18" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N18" t="n">
         <v>424</v>
       </c>
       <c r="O18" t="n">
-        <v>82.486575795126</v>
+        <v>82.5010317787866</v>
       </c>
     </row>
     <row r="19">
@@ -1338,40 +1341,40 @@
         <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165313043839566</v>
+        <v>0.174173491218364</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0555636330127937</v>
+        <v>0.0524344717256909</v>
       </c>
       <c r="F19" t="n">
-        <v>1.17976237825583</v>
+        <v>1.1902620479213</v>
       </c>
       <c r="G19" t="n">
-        <v>1.05802961351532</v>
+        <v>1.07401281348642</v>
       </c>
       <c r="H19" t="n">
-        <v>1.31550124057816</v>
+        <v>1.31909389248614</v>
       </c>
       <c r="I19" t="n">
-        <v>2.97520221187664</v>
+        <v>3.32173635942299</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00311308104509836</v>
+        <v>0.000981308586215713</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0285199640139541</v>
+        <v>0.1581778457872</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0209302762328131</v>
+        <v>0.142670595578017</v>
       </c>
       <c r="M19" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N19" t="n">
         <v>388</v>
       </c>
       <c r="O19" t="n">
-        <v>83.9735646427096</v>
+        <v>83.9867932315312</v>
       </c>
     </row>
     <row r="20">
@@ -1385,40 +1388,40 @@
         <v>35</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0249761092349802</v>
+        <v>0.104101269308176</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0546108728607106</v>
+        <v>0.0524262730574035</v>
       </c>
       <c r="F20" t="n">
-        <v>1.02529062525442</v>
+        <v>1.10971282907593</v>
       </c>
       <c r="G20" t="n">
-        <v>0.921215577129563</v>
+        <v>1.00134668007601</v>
       </c>
       <c r="H20" t="n">
-        <v>1.14112363309153</v>
+        <v>1.22980640722975</v>
       </c>
       <c r="I20" t="n">
-        <v>0.457346823565406</v>
+        <v>1.98566984142076</v>
       </c>
       <c r="J20" t="n">
-        <v>0.647652222690536</v>
+        <v>0.047709138649791</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00716439031356377</v>
+        <v>0.138712587214175</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000253701615050228</v>
+        <v>0.1245931214308</v>
       </c>
       <c r="M20" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N20" t="n">
         <v>435</v>
       </c>
       <c r="O20" t="n">
-        <v>82.0322180916976</v>
+        <v>82.0470491126702</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1435,40 @@
         <v>36</v>
       </c>
       <c r="D21" t="n">
-        <v>0.196072977996674</v>
+        <v>0.104841057234411</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0574543324587786</v>
+        <v>0.057701804036442</v>
       </c>
       <c r="F21" t="n">
-        <v>1.21661568827033</v>
+        <v>1.11053408496861</v>
       </c>
       <c r="G21" t="n">
-        <v>1.08704443555335</v>
+        <v>0.991779495986786</v>
       </c>
       <c r="H21" t="n">
-        <v>1.36163130460442</v>
+        <v>1.24350821817505</v>
       </c>
       <c r="I21" t="n">
-        <v>3.41267524320032</v>
+        <v>1.81694591677234</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000714611784387826</v>
+        <v>0.070045366239953</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0397602360858634</v>
+        <v>0.124473604199421</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0319534087369681</v>
+        <v>0.107682687019684</v>
       </c>
       <c r="M21" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N21" t="n">
         <v>373</v>
       </c>
       <c r="O21" t="n">
-        <v>84.5931433292028</v>
+        <v>84.605860503508</v>
       </c>
     </row>
     <row r="22">
@@ -1479,40 +1482,40 @@
         <v>37</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207825749480319</v>
+        <v>0.0766170839239773</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0524347772596948</v>
+        <v>0.0545409097552305</v>
       </c>
       <c r="F22" t="n">
-        <v>1.23099864870496</v>
+        <v>1.0796285900891</v>
       </c>
       <c r="G22" t="n">
-        <v>1.11077013054618</v>
+        <v>0.970170840082517</v>
       </c>
       <c r="H22" t="n">
-        <v>1.36424056736952</v>
+        <v>1.20143571047614</v>
       </c>
       <c r="I22" t="n">
-        <v>3.96350972277456</v>
+        <v>1.40476358512941</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0000864353187430207</v>
+        <v>0.160818616227582</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0416145117841696</v>
+        <v>0.134758201286718</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0349436151144538</v>
+        <v>0.120573909504534</v>
       </c>
       <c r="M22" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N22" t="n">
         <v>435</v>
       </c>
       <c r="O22" t="n">
-        <v>82.0322180916976</v>
+        <v>82.0470491126702</v>
       </c>
     </row>
     <row r="23">
@@ -1526,40 +1529,40 @@
         <v>38</v>
       </c>
       <c r="D23" t="n">
-        <v>0.160688418619847</v>
+        <v>0.0396603277699467</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0565640497737155</v>
+        <v>0.057027392470027</v>
       </c>
       <c r="F23" t="n">
-        <v>1.17431901586507</v>
+        <v>1.04045729971179</v>
       </c>
       <c r="G23" t="n">
-        <v>1.05108491284612</v>
+        <v>0.930425415438579</v>
       </c>
       <c r="H23" t="n">
-        <v>1.31200166053967</v>
+        <v>1.16350152796853</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8408223821081</v>
+        <v>0.695461006581912</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00473758517054133</v>
+        <v>0.48718818413769</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0308288871048531</v>
+        <v>0.142899945005072</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0233159327413248</v>
+        <v>0.127234930945113</v>
       </c>
       <c r="M23" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N23" t="n">
         <v>391</v>
       </c>
       <c r="O23" t="n">
-        <v>83.849648905411</v>
+        <v>83.8629797771358</v>
       </c>
     </row>
     <row r="24">
@@ -1573,40 +1576,40 @@
         <v>39</v>
       </c>
       <c r="D24" t="n">
-        <v>0.163865796025849</v>
+        <v>0.153173864897915</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0515081395932328</v>
+        <v>0.049160374824736</v>
       </c>
       <c r="F24" t="n">
-        <v>1.178056204659</v>
+        <v>1.16552760566557</v>
       </c>
       <c r="G24" t="n">
-        <v>1.06493082332051</v>
+        <v>1.05846477227581</v>
       </c>
       <c r="H24" t="n">
-        <v>1.30319865942868</v>
+        <v>1.28341975581075</v>
       </c>
       <c r="I24" t="n">
-        <v>3.18135730235882</v>
+        <v>3.11579936979737</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00157208339320124</v>
+        <v>0.00195853377854136</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0295827453082761</v>
+        <v>0.150268535285082</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0228123923685666</v>
+        <v>0.13630581168648</v>
       </c>
       <c r="M24" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N24" t="n">
         <v>434</v>
       </c>
       <c r="O24" t="n">
-        <v>82.0735233374639</v>
+        <v>82.0883202641354</v>
       </c>
     </row>
     <row r="25">
@@ -1620,40 +1623,40 @@
         <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>0.152689204332615</v>
+        <v>0.0714248136311513</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0512526948938649</v>
+        <v>0.0503059964448572</v>
       </c>
       <c r="F25" t="n">
-        <v>1.16496285726403</v>
+        <v>1.07403739469376</v>
       </c>
       <c r="G25" t="n">
-        <v>1.05362217945506</v>
+        <v>0.973190977185418</v>
       </c>
       <c r="H25" t="n">
-        <v>1.28806937179957</v>
+        <v>1.18533397066297</v>
       </c>
       <c r="I25" t="n">
-        <v>2.97914489469884</v>
+        <v>1.41980715379415</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0030538888574644</v>
+        <v>0.1563934847087</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0267245940938745</v>
+        <v>0.134843898653976</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0199500553056647</v>
+        <v>0.120661011746664</v>
       </c>
       <c r="M25" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N25" t="n">
         <v>435</v>
       </c>
       <c r="O25" t="n">
-        <v>82.0322180916976</v>
+        <v>82.0470491126702</v>
       </c>
     </row>
     <row r="26">
@@ -1667,40 +1670,40 @@
         <v>41</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00402017457875431</v>
+        <v>0.156148086043569</v>
       </c>
       <c r="E26" t="n">
-        <v>0.055125575996017</v>
+        <v>0.0576324648351233</v>
       </c>
       <c r="F26" t="n">
-        <v>1.00402826632035</v>
+        <v>1.16899930275441</v>
       </c>
       <c r="G26" t="n">
-        <v>0.901201906986826</v>
+        <v>1.04413464867089</v>
       </c>
       <c r="H26" t="n">
-        <v>1.11858702445575</v>
+        <v>1.30879611320229</v>
       </c>
       <c r="I26" t="n">
-        <v>0.072927575016083</v>
+        <v>2.70937719721484</v>
       </c>
       <c r="J26" t="n">
-        <v>0.94190380680513</v>
+        <v>0.00706324095608064</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00913418367849256</v>
+        <v>0.17462116634905</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000967707170348331</v>
+        <v>0.158572133472504</v>
       </c>
       <c r="M26" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N26" t="n">
         <v>368</v>
       </c>
       <c r="O26" t="n">
-        <v>84.7996695580339</v>
+        <v>84.8122162608337</v>
       </c>
     </row>
     <row r="27">
@@ -1714,40 +1717,40 @@
         <v>42</v>
       </c>
       <c r="D27" t="n">
-        <v>0.132473133117017</v>
+        <v>0.0360405454779395</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0530853761346171</v>
+        <v>0.0520779972878683</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1416483431447</v>
+        <v>1.03669787904979</v>
       </c>
       <c r="G27" t="n">
-        <v>1.02883366431881</v>
+        <v>0.936100600413006</v>
       </c>
       <c r="H27" t="n">
-        <v>1.26683348786803</v>
+        <v>1.14810576123138</v>
       </c>
       <c r="I27" t="n">
-        <v>2.49547319361709</v>
+        <v>0.692049375069482</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0129608208822953</v>
+        <v>0.489291476346555</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0216078893464688</v>
+        <v>0.136579420828508</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0146359740686527</v>
+        <v>0.122085550194934</v>
       </c>
       <c r="M27" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N27" t="n">
         <v>425</v>
       </c>
       <c r="O27" t="n">
-        <v>82.4452705493598</v>
+        <v>82.4597606273215</v>
       </c>
     </row>
     <row r="28">
@@ -1761,40 +1764,40 @@
         <v>43</v>
       </c>
       <c r="D28" t="n">
-        <v>0.160516338411251</v>
+        <v>0.106665562251782</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0548756637781423</v>
+        <v>0.0520512146880774</v>
       </c>
       <c r="F28" t="n">
-        <v>1.17411695618959</v>
+        <v>1.11256210948648</v>
       </c>
       <c r="G28" t="n">
-        <v>1.0543875082176</v>
+        <v>1.00465598704338</v>
       </c>
       <c r="H28" t="n">
-        <v>1.30744210839741</v>
+        <v>1.23205800137391</v>
       </c>
       <c r="I28" t="n">
-        <v>2.92509151342942</v>
+        <v>2.049242517989</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00362752856190257</v>
+        <v>0.0410561919462106</v>
       </c>
       <c r="K28" t="n">
-        <v>0.028474250288129</v>
+        <v>0.154166780476864</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0216325196563553</v>
+        <v>0.140136371622215</v>
       </c>
       <c r="M28" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N28" t="n">
         <v>430</v>
       </c>
       <c r="O28" t="n">
-        <v>82.2387443205287</v>
+        <v>82.2534048699959</v>
       </c>
     </row>
     <row r="29">
@@ -1808,40 +1811,40 @@
         <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>0.142793814217281</v>
+        <v>0.143826286291787</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0548864543338653</v>
+        <v>0.0514696323290652</v>
       </c>
       <c r="F29" t="n">
-        <v>1.15349194350614</v>
+        <v>1.15468350674801</v>
       </c>
       <c r="G29" t="n">
-        <v>1.03584380357745</v>
+        <v>1.04388132218082</v>
       </c>
       <c r="H29" t="n">
-        <v>1.2845022185182</v>
+        <v>1.27724672568184</v>
       </c>
       <c r="I29" t="n">
-        <v>2.60162212972785</v>
+        <v>2.79439117365848</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0096015545986389</v>
+        <v>0.00543676793555266</v>
       </c>
       <c r="K29" t="n">
-        <v>0.024460975653546</v>
+        <v>0.16126948630956</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0175909825243457</v>
+        <v>0.14735689485024</v>
       </c>
       <c r="M29" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N29" t="n">
         <v>430</v>
       </c>
       <c r="O29" t="n">
-        <v>82.2387443205287</v>
+        <v>82.2534048699959</v>
       </c>
     </row>
     <row r="30">
@@ -1855,40 +1858,2766 @@
         <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>0.140326415482367</v>
+        <v>0.0868662077881371</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0529646162310821</v>
+        <v>0.0502552120505877</v>
       </c>
       <c r="F30" t="n">
-        <v>1.15064932731995</v>
+        <v>1.09075073600187</v>
       </c>
       <c r="G30" t="n">
-        <v>1.03719065796826</v>
+        <v>0.988433405555543</v>
       </c>
       <c r="H30" t="n">
-        <v>1.27651928243878</v>
+        <v>1.20365940831384</v>
       </c>
       <c r="I30" t="n">
-        <v>2.64943702924475</v>
+        <v>1.72850146768252</v>
       </c>
       <c r="J30" t="n">
-        <v>0.00836247658999472</v>
+        <v>0.0846298023387883</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0250266250588044</v>
+        <v>0.151755235151071</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0181606153761199</v>
+        <v>0.137684824359738</v>
       </c>
       <c r="M30" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N30" t="n">
         <v>430</v>
       </c>
       <c r="O30" t="n">
-        <v>82.2387443205287</v>
+        <v>82.2534048699959</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.0975519023170024</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0494981791448855</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.907055262064295</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.823189924934404</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.999464672146087</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1.97081799779865</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0495725771772444</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.136641868748165</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.11849319932245</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N31" t="n">
+        <v>341</v>
+      </c>
+      <c r="O31" t="n">
+        <v>85.9265373503921</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.129644968213793</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.050342449039242</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.878407238057309</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.795872590344244</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.969501004598895</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-2.57526144810187</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0104812658218662</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.155299825603303</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.138897880469386</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N32" t="n">
+        <v>316</v>
+      </c>
+      <c r="O32" t="n">
+        <v>86.9583161370202</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.0982609907857654</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0488347156884753</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.906412307620165</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.823676820996086</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.997458287598477</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-2.01211350164478</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0450177913349825</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.136944501139651</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.121299990586291</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N33" t="n">
+        <v>338</v>
+      </c>
+      <c r="O33" t="n">
+        <v>86.0503508047875</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0503785569415644</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0513665300532902</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.05166913768292</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.950944248758882</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.16306289942679</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.980766208838697</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.327397297896128</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.138717746900663</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.121191654541083</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N34" t="n">
+        <v>352</v>
+      </c>
+      <c r="O34" t="n">
+        <v>85.4725546842757</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.26094079034049</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0480128012855132</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.29815080009126</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.18156011882049</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.42624609017767</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.43481703533143</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0000001059903989092</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.217896861847405</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.201505478712471</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N35" t="n">
+        <v>342</v>
+      </c>
+      <c r="O35" t="n">
+        <v>85.885266198927</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.104432679686283</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.048563659407429</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.1100806603724</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.00929080126663</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.22093560249073</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.15042855008384</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0321634838797357</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.143157959286582</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.127077813750405</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N36" t="n">
+        <v>381</v>
+      </c>
+      <c r="O36" t="n">
+        <v>84.275691291787</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.0768110200530788</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0538214899042857</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.926064844756273</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.833350347280746</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.02909430528448</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-1.42714406809765</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.154599562023645</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.142553489816617</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.125054581445528</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N37" t="n">
+        <v>301</v>
+      </c>
+      <c r="O37" t="n">
+        <v>87.5773834089971</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.0799955653244318</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0514961817348789</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.923120440117221</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.834495372172458</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.02115766651143</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-1.55342712079661</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.121344714189811</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.127101942957644</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.11015246612187</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N38" t="n">
+        <v>316</v>
+      </c>
+      <c r="O38" t="n">
+        <v>86.9583161370202</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.122498855546749</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0450377486942875</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.13031782647736</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.03481727796826</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.2346318679187</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.71991516224003</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.00679699990032206</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.134268484831444</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.12004284960567</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N39" t="n">
+        <v>434</v>
+      </c>
+      <c r="O39" t="n">
+        <v>82.0883202641354</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.112270143892143</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0454964624626962</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.11881506087957</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.02336588049097</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.22316677183963</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.46766754633278</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.013990798032088</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.13169953491227</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.117465101058373</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N40" t="n">
+        <v>435</v>
+      </c>
+      <c r="O40" t="n">
+        <v>82.0470491126702</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.0643465135219107</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0550686070545088</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.937680024422159</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.841742624275553</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.04455186519402</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-1.16847904756731</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.243462150942622</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.139117553520841</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.120745062285006</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N41" t="n">
+        <v>336</v>
+      </c>
+      <c r="O41" t="n">
+        <v>86.1328931077177</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.0987054778042848</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0532224572433241</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.906009508642092</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.816260696528665</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.00562630693938</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-1.85458325144628</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0646434600401872</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.139714909872406</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.119506870842564</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N42" t="n">
+        <v>306</v>
+      </c>
+      <c r="O42" t="n">
+        <v>87.3710276516715</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0293004319992901</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0493163021656141</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.02973391302644</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.934859040160571</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.13423723372735</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.59413278596788</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.552737938898394</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.120044276578319</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.105618772915668</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N43" t="n">
+        <v>435</v>
+      </c>
+      <c r="O43" t="n">
+        <v>82.0470491126702</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.214887446357004</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0428670712147225</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.23972235384594</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.13981730042304</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.34838409107748</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.01287912301323</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.000000789972660602897</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.168122332532017</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.154356035434439</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N44" t="n">
+        <v>431</v>
+      </c>
+      <c r="O44" t="n">
+        <v>82.2121337185308</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.128892158441749</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0474034942738673</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.13756744050525</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.03663647122691</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.24832544254023</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.71904340420755</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.00684262748031553</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.147181448029276</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.131715826620481</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N45" t="n">
+        <v>394</v>
+      </c>
+      <c r="O45" t="n">
+        <v>83.7391663227404</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.047091223079382</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0490207940939536</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.04821762635808</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.952191095902265</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.15392823660739</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.960637703851281</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.337288382693286</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.119834326710372</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.10512988825446</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N46" t="n">
+        <v>427</v>
+      </c>
+      <c r="O46" t="n">
+        <v>82.3772183243913</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0772427005460709</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0472434578281345</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.08030423500605</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.984762802162171</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.18511507299991</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.63499252800398</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.102807029653504</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.125995121838534</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.111288308984856</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N47" t="n">
+        <v>424</v>
+      </c>
+      <c r="O47" t="n">
+        <v>82.5010317787866</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.131911851210846</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0462655477936455</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.14100773638379</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.04209319460803</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.24931115683695</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.85118965410725</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.00459329328514091</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.144859730614803</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.129107146705076</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N48" t="n">
+        <v>388</v>
+      </c>
+      <c r="O48" t="n">
+        <v>83.9867932315312</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.0970987065710477</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0462232751988776</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.10196913984815</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.00652226511684</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.20646708698162</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.10064531674306</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0362579277980696</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.128324911577007</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.114035156029089</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N49" t="n">
+        <v>435</v>
+      </c>
+      <c r="O49" t="n">
+        <v>82.0470491126702</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0944931427794357</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0510243945614584</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.09910162632487</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.994500507321518</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.21470464428776</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.85192090159188</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0648445076649909</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.107796374715352</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.090685620257838</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N50" t="n">
+        <v>373</v>
+      </c>
+      <c r="O50" t="n">
+        <v>84.605860503508</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0899628829869224</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0480280497853586</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.09413367197771</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.995836596503371</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.20213345880122</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.87313212568435</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.0617330919626081</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.12649435607663</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.112174591422148</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N51" t="n">
+        <v>435</v>
+      </c>
+      <c r="O51" t="n">
+        <v>82.0470491126702</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0432839675579366</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0497034548423128</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.04423438143954</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.947304397535624</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.15108242526598</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.870844244032082</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.384384708154616</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.13645243899177</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.12066958539632</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N52" t="n">
+        <v>391</v>
+      </c>
+      <c r="O52" t="n">
+        <v>83.8629797771358</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.127739548142591</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0434226459864067</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.13625702390225</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.04355292189568</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.23719650175659</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.94177255302635</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.00344146240433743</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.136770323686664</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.122585798489028</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N53" t="n">
+        <v>434</v>
+      </c>
+      <c r="O53" t="n">
+        <v>82.0883202641354</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.113279909700103</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0441435776606076</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.11994537265252</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.02711972081303</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.22116011630364</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.56616966053458</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0106229538942823</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.132692514396805</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.118474358895114</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N54" t="n">
+        <v>435</v>
+      </c>
+      <c r="O54" t="n">
+        <v>82.0470491126702</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.234188860284246</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0499234067694101</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.26388316700315</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.14607032613106</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.39380684013211</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.69096312609303</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.00000386772643800309</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.193197071800606</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.177509237085618</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N55" t="n">
+        <v>368</v>
+      </c>
+      <c r="O55" t="n">
+        <v>84.8122162608337</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0147917078856542</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0457876794932591</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.01490164658831</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.92778788555638</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.11019487135249</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.32304995687392</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.746819336341164</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.126395907144004</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.111731090237549</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N56" t="n">
+        <v>425</v>
+      </c>
+      <c r="O56" t="n">
+        <v>82.4597606273215</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0225309896470405</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0460218993739241</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.02278672947307</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.934567023772154</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.11933405242989</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.489571051033294</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.62469184917859</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.132783503611303</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.118398395851301</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N57" t="n">
+        <v>430</v>
+      </c>
+      <c r="O57" t="n">
+        <v>82.2534048699959</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.182809034466651</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0448383858647028</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.2005851158111</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.09957726145593</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.3108716147864</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.07706546391449</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.0000545168336744011</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.165174502396555</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.151326686085598</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N58" t="n">
+        <v>430</v>
+      </c>
+      <c r="O58" t="n">
+        <v>82.2534048699959</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.106610667127503</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0440788660021872</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.11250103692752</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.02042181891351</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.21288915448965</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.41863452481316</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0160011545043168</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.144154743590417</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.129958258294523</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N59" t="n">
+        <v>430</v>
+      </c>
+      <c r="O59" t="n">
+        <v>82.2534048699959</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.0781160470880497</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.049503814056018</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.924857093343262</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.839336548328697</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.01909138212861</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-1.57798037540409</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.115360587830897</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0651086397378492</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0487480409332616</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N60" t="n">
+        <v>408</v>
+      </c>
+      <c r="O60" t="n">
+        <v>83.1613702022286</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.0471472039616345</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0518299547198999</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.953946962482256</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.861798395836425</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.0559485972887</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.909651652532362</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.363596824351749</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0687637892213551</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0537033653273608</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N61" t="n">
+        <v>378</v>
+      </c>
+      <c r="O61" t="n">
+        <v>84.3995047461824</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.101836337030402</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0504663182879304</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.903177356261677</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.81811667271062</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.997081912731496</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-2.017907001842</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.0442782983953988</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.0726252341541731</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0585027757910388</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N62" t="n">
+        <v>401</v>
+      </c>
+      <c r="O62" t="n">
+        <v>83.4502682624845</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0465306757871613</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0497165208222402</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.04763021545714</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.950360678345466</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.15485530214647</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.935919791200397</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.349856169429024</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0556716971641455</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0398196633035918</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N63" t="n">
+        <v>425</v>
+      </c>
+      <c r="O63" t="n">
+        <v>82.4597606273215</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.316761163817291</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0474119265942877</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.37267468838912</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.25086309330778</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.50634854463688</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6.68104391808147</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.000000000078839361099522</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.160085867090225</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.145532899440798</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N64" t="n">
+        <v>412</v>
+      </c>
+      <c r="O64" t="n">
+        <v>82.9962855963681</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.282708767523565</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.039815815089077</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.32671872196904</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.22711976622293</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.43440160909558</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7.10041391570364</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.00000000000437594807135803</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.191182869557406</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.179675308758426</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N65" t="n">
+        <v>500</v>
+      </c>
+      <c r="O65" t="n">
+        <v>79.3644242674371</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.141857443778297</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0550385562995255</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.867744950110546</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.779008739639136</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.966589025421155</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-2.57741941860346</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0103615528246619</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0822437774311674</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0665556368744352</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N66" t="n">
+        <v>358</v>
+      </c>
+      <c r="O66" t="n">
+        <v>85.2249277754849</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.0932033398547702</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0515670085055283</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.911008237178449</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.823431695845639</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.00789903084149</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-1.80742188767414</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0715042104884884</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0711501927007907</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0561687441959647</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N67" t="n">
+        <v>379</v>
+      </c>
+      <c r="O67" t="n">
+        <v>84.3582335947173</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.422607588442698</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0383348310423817</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.52593538378382</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.4154837133929</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.64500571320749</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11.0241150658908</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.000000000000000000000000117015666047402</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.243240649441184</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.233556343309719</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N68" t="n">
+        <v>555</v>
+      </c>
+      <c r="O68" t="n">
+        <v>77.0945109368551</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.370609614599769</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0392919587809889</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.44861744388646</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.34124377718616</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.56458694118578</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9.43220002508721</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.000000000000000000112981615323116</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.204135288041955</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.193969132962199</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N69" t="n">
+        <v>556</v>
+      </c>
+      <c r="O69" t="n">
+        <v>77.05323978539</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.0493156509984696</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0520982859531736</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.951880620204748</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.85947951207843</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.05421560652477</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.946588742723608</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.344424170191544</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0795962967998982</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0633675161389391</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N70" t="n">
+        <v>405</v>
+      </c>
+      <c r="O70" t="n">
+        <v>83.285183656624</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.0178525488216122</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0540435558264396</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.982305863837412</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.883576045217191</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.09206764415187</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.330336310196641</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.74133695407865</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0565454968522011</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0383019014874647</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N71" t="n">
+        <v>370</v>
+      </c>
+      <c r="O71" t="n">
+        <v>84.7296739579034</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.349057403135905</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0450083236345634</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.41773057018683</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.29802137892434</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.54847986502958</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7.75539666773663</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.0000000000000432034515450998</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.166419033610731</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.155771101558313</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N72" t="n">
+        <v>556</v>
+      </c>
+      <c r="O72" t="n">
+        <v>77.05323978539</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.00000000000000000627574664396931</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.71828182845905</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.71828182845905</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.71828182845905</v>
+      </c>
+      <c r="I73" t="n">
+        <v>159343589971235168</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N73" t="n">
+        <v>556</v>
+      </c>
+      <c r="O73" t="n">
+        <v>77.05323978539</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.350978001921513</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0385036266317327</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.42045607826421</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.31720345397064</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.5318024441824</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9.11545307870442</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.00000000000000000184587509952027</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.229685546127869</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.219007920034592</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N74" t="n">
+        <v>513</v>
+      </c>
+      <c r="O74" t="n">
+        <v>78.8278992983904</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.343070430405298</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0443331221421783</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.40926801374862</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.29198204861963</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.53720118379113</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7.73846762483941</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.000000000000049653303570287</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.169289806306781</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.158541245575076</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N75" t="n">
+        <v>549</v>
+      </c>
+      <c r="O75" t="n">
+        <v>77.3421378456459</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.313672171597329</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0417917542853501</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.36844104916186</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.26081751651261</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.48525133931425</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7.50559953658814</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.000000000000255158955219246</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.169133905901492</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.158323380513593</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N76" t="n">
+        <v>546</v>
+      </c>
+      <c r="O76" t="n">
+        <v>77.4659513000413</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.429691463519122</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.039130391692323</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.53678329668367</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.423325301813</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.65928540577312</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10.9810161599641</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.000000000000000000000000316924481318352</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.264620190405652</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.254093281065856</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N77" t="n">
+        <v>497</v>
+      </c>
+      <c r="O77" t="n">
+        <v>79.4882377218324</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.345927898983672</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0397552227423581</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.41330071172633</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.30735715748135</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.52782955318364</v>
+      </c>
+      <c r="I78" t="n">
+        <v>8.70144537298983</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.000000000000000038401032927555</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.187226609709263</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.176844467862484</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N78" t="n">
+        <v>556</v>
+      </c>
+      <c r="O78" t="n">
+        <v>77.05323978539</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.273441685647133</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0446163909465144</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.31448070388542</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.20441450319092</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.43460537573187</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.12872713023632</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.00000000186822747768411</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.124579630835862</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.111624149685442</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N79" t="n">
+        <v>481</v>
+      </c>
+      <c r="O79" t="n">
+        <v>80.1485761452745</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.439762902907399</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0408298542300608</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.55233911978346</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.43295162240767</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.68167348089614</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10.770621428857</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.00000000000000000000000114350017088753</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.236544760131472</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.226792594658699</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N80" t="n">
+        <v>556</v>
+      </c>
+      <c r="O80" t="n">
+        <v>77.05323978539</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.375756454720772</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0403156909679573</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.45609246613778</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.34546233895782</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.57581911329118</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9.32035258975025</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.000000000000000000371060844741783</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.233765800476876</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.223038521683552</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N81" t="n">
+        <v>508</v>
+      </c>
+      <c r="O81" t="n">
+        <v>79.0342550557161</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.587532855261286</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.034551438776958</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.799543200619</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.68171151751821</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.92563094036073</v>
+      </c>
+      <c r="I82" t="n">
+        <v>17.0045843547651</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000226888124377618</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.394948744008357</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.387205857734241</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N82" t="n">
+        <v>555</v>
+      </c>
+      <c r="O82" t="n">
+        <v>77.0945109368551</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.661086307875144</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0331103512228962</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.93689525655531</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.81518977136733</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.06676089411881</v>
+      </c>
+      <c r="I83" t="n">
+        <v>19.9661520780847</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000467076052012187</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.464489977998995</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.457649521513581</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N83" t="n">
+        <v>556</v>
+      </c>
+      <c r="O83" t="n">
+        <v>77.05323978539</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.3357936450306</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0500851909524958</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.39905029404083</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.26823563499287</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.54335808839398</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6.70444973144037</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.0000000000615907537752197</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.158880048881651</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.145619148751406</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N84" t="n">
+        <v>452</v>
+      </c>
+      <c r="O84" t="n">
+        <v>81.3454395377631</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.100342497512363</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0436099022923232</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.10554950119401</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.01497815390865</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.20420296228399</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.30091085368074</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0217914034203761</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0871488604472165</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0748604797224676</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N85" t="n">
+        <v>528</v>
+      </c>
+      <c r="O85" t="n">
+        <v>78.2088320264135</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.325954930048026</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0406836567604478</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.38535292967572</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.2791745189223</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.50034472339085</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8.01193786407409</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.00000000000000739586067118082</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.170823618292249</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.159725655248359</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N86" t="n">
+        <v>531</v>
+      </c>
+      <c r="O86" t="n">
+        <v>78.0850185720182</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.430758484035113</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0383155823741977</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.53842395114018</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.42712216226085</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.65840620798178</v>
+      </c>
+      <c r="I87" t="n">
+        <v>11.2423838382055</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.0000000000000000000000000205251964144484</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.250243865371119</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.240208888425799</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N87" t="n">
+        <v>531</v>
+      </c>
+      <c r="O87" t="n">
+        <v>78.0850185720182</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.561902882573651</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0353318046269273</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.75400699605985</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.63665176057447</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.87977712567701</v>
+      </c>
+      <c r="I88" t="n">
+        <v>15.9035998445834</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.000000000000000000000000000000000000000000000099916858163204</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.372790146834136</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.364379286734211</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N88" t="n">
+        <v>530</v>
+      </c>
+      <c r="O88" t="n">
+        <v>78.1262897234833</v>
       </c>
     </row>
   </sheetData>
